--- a/Excels/data/2012.xlsx
+++ b/Excels/data/2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE63E5-5D19-4522-B688-BD6ADADD9854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18BA5C-F8F5-4B6C-A11F-F4F223BDB69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{8F81E862-BABC-4172-AE00-1A1D118F6441}"/>
+    <workbookView xWindow="-8460" yWindow="4410" windowWidth="18075" windowHeight="12255" activeTab="1" xr2:uid="{8F81E862-BABC-4172-AE00-1A1D118F6441}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="254">
   <si>
     <t>Round</t>
   </si>
@@ -866,6 +866,12 @@
   </si>
   <si>
     <t>riders</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -926,15 +932,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1071,8 +1080,8 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{111BB48A-5992-4DE9-977D-2265CC8838D7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="11" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="2" name="Team" tableColumnId="2"/>
       <queryTableField id="3" name="Constructor" tableColumnId="3"/>
       <queryTableField id="5" name="Motorcycle" tableColumnId="5"/>
@@ -1080,6 +1089,7 @@
       <queryTableField id="6" name="No." tableColumnId="6"/>
       <queryTableField id="7" name="Rider" tableColumnId="7"/>
       <queryTableField id="8" name="Rounds" tableColumnId="8"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="2">
       <deletedField name="Header"/>
@@ -1137,26 +1147,27 @@
   <autoFilter ref="A1:E19" xr:uid="{584E59D8-0365-4D34-8142-D5B9EE0C4002}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D6061FAA-43E6-4D77-A0FE-AD537FB7121E}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{9531F339-0B00-4BE0-8E53-7842526088A8}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{3E13D9B4-5C1F-4D07-994F-C9882D37B804}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{0E837985-7E68-40A1-8A0C-D2949E835257}" uniqueName="5" name="Circuit" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{346D28DF-D735-4EC0-A994-952532EA505F}" uniqueName="6" name="Location" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9531F339-0B00-4BE0-8E53-7842526088A8}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{3E13D9B4-5C1F-4D07-994F-C9882D37B804}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{0E837985-7E68-40A1-8A0C-D2949E835257}" uniqueName="5" name="Circuit" queryTableFieldId="5" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{346D28DF-D735-4EC0-A994-952532EA505F}" uniqueName="6" name="Location" queryTableFieldId="6" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6F24101-135A-49EF-B86F-AE76A152A912}" name="Table_1" displayName="Table_1" ref="A1:G38" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G38" xr:uid="{F6F24101-135A-49EF-B86F-AE76A152A912}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{CC02CD51-C504-445B-8F6E-919A49B44174}" uniqueName="2" name="Team" queryTableFieldId="2" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{46380756-76C2-4A45-BAFC-C22F120CD86E}" uniqueName="3" name="Constructor" queryTableFieldId="3" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{C1B543B3-7855-4FBC-8BF1-EF4183F99CF5}" uniqueName="5" name="Motorcycle" queryTableFieldId="5" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{A0A1F822-47AD-4EFA-A405-2A950931A923}" uniqueName="9" name="Tyres" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B13D2C36-2D43-42BA-8663-EA27E97A3EF1}" uniqueName="6" name="No." queryTableFieldId="6" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{D46E9DEF-5D53-4B8E-B367-F04C417B2BF8}" uniqueName="7" name="Rider" queryTableFieldId="7" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{856069CF-B319-46A6-A310-97BA0A3C40EC}" uniqueName="8" name="Rounds" queryTableFieldId="8" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6F24101-135A-49EF-B86F-AE76A152A912}" name="Table_1" displayName="Table_1" ref="A1:H38" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H38" xr:uid="{F6F24101-135A-49EF-B86F-AE76A152A912}"/>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{CC02CD51-C504-445B-8F6E-919A49B44174}" uniqueName="2" name="Team" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{46380756-76C2-4A45-BAFC-C22F120CD86E}" uniqueName="3" name="Constructor" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{C1B543B3-7855-4FBC-8BF1-EF4183F99CF5}" uniqueName="5" name="Motorcycle" queryTableFieldId="5" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{A0A1F822-47AD-4EFA-A405-2A950931A923}" uniqueName="9" name="Tyres" queryTableFieldId="9" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{B13D2C36-2D43-42BA-8663-EA27E97A3EF1}" uniqueName="6" name="No." queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{D46E9DEF-5D53-4B8E-B367-F04C417B2BF8}" uniqueName="7" name="Rider" queryTableFieldId="7" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{856069CF-B319-46A6-A310-97BA0A3C40EC}" uniqueName="8" name="Rounds" queryTableFieldId="8" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{E373FDBB-A476-4AAB-B067-0D684069BC91}" uniqueName="1" name="Class" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,28 +1178,28 @@
   <autoFilter ref="A1:X38" xr:uid="{9AB3F490-18F0-4033-B504-8D24FA989915}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{6476188F-F2D1-4FD9-9892-B87D264FF56E}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{4A0C78DA-3017-47EE-BA35-39C755E5A475}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{B8C177C2-7B9B-4924-A081-10B10F95B94B}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{F0258C03-45D1-4682-9CC6-AD327B448DC5}" uniqueName="4" name="CRT" queryTableFieldId="4" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{06E86CAC-6130-4DCD-BF48-5FDDEFB9B305}" uniqueName="5" name="Team" queryTableFieldId="5" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{E05FCEA5-5BF6-4B72-8240-50F6D171542F}" uniqueName="6" name="QAT" queryTableFieldId="6" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{7B611AAC-8A10-4A3E-B57F-14C4D1A28836}" uniqueName="7" name="ESP" queryTableFieldId="7" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{0FDA2521-9BF3-4475-8603-F8AAD08B05BA}" uniqueName="8" name="POR" queryTableFieldId="8" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{01DE3542-736A-4A48-9B7F-316F620CE7F6}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{95D6537F-C561-4D9C-92C0-5632E9B1DA89}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{5466B52A-0831-4C1F-A9AB-30EFEA18B8AC}" uniqueName="11" name="GBR" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{81A8265E-C205-4B93-9CCE-0B4F538228F7}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{60079777-E3A9-4E2C-976E-F26DBF85A156}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{FF5E302F-03D7-4D55-BADF-449A63E3D688}" uniqueName="14" name="ITA" queryTableFieldId="14" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{6BED282F-EA4C-42D2-827D-5691563B496F}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{EF036A2A-8D52-4DBF-AB47-22B150723144}" uniqueName="16" name="INP" queryTableFieldId="16" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{47959C2E-143F-4303-8D4A-CFA052FB90AA}" uniqueName="17" name="CZE" queryTableFieldId="17" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{52AF4059-B7A9-4367-8550-883612B4A111}" uniqueName="18" name="RSM" queryTableFieldId="18" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{818B5783-7825-4D26-998E-281773717B25}" uniqueName="19" name="ARA" queryTableFieldId="19" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{0FE14043-3324-41DD-8B51-00A0A2C48D64}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{2428A88F-E0AB-4FDB-A9BB-F5EE9BE4A3FF}" uniqueName="21" name="MAL" queryTableFieldId="21" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{78A467B1-E2C6-4AA0-A859-AE4312CDAB7C}" uniqueName="22" name="AUS" queryTableFieldId="22" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00E1EE48-65DA-4C20-87EF-299480229B47}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4A0C78DA-3017-47EE-BA35-39C755E5A475}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B8C177C2-7B9B-4924-A081-10B10F95B94B}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{F0258C03-45D1-4682-9CC6-AD327B448DC5}" uniqueName="4" name="CRT" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{06E86CAC-6130-4DCD-BF48-5FDDEFB9B305}" uniqueName="5" name="Team" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{E05FCEA5-5BF6-4B72-8240-50F6D171542F}" uniqueName="6" name="QAT" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{7B611AAC-8A10-4A3E-B57F-14C4D1A28836}" uniqueName="7" name="ESP" queryTableFieldId="7" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{0FDA2521-9BF3-4475-8603-F8AAD08B05BA}" uniqueName="8" name="POR" queryTableFieldId="8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{01DE3542-736A-4A48-9B7F-316F620CE7F6}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{95D6537F-C561-4D9C-92C0-5632E9B1DA89}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{5466B52A-0831-4C1F-A9AB-30EFEA18B8AC}" uniqueName="11" name="GBR" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{81A8265E-C205-4B93-9CCE-0B4F538228F7}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{60079777-E3A9-4E2C-976E-F26DBF85A156}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{FF5E302F-03D7-4D55-BADF-449A63E3D688}" uniqueName="14" name="ITA" queryTableFieldId="14" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{6BED282F-EA4C-42D2-827D-5691563B496F}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{EF036A2A-8D52-4DBF-AB47-22B150723144}" uniqueName="16" name="INP" queryTableFieldId="16" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{47959C2E-143F-4303-8D4A-CFA052FB90AA}" uniqueName="17" name="CZE" queryTableFieldId="17" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{52AF4059-B7A9-4367-8550-883612B4A111}" uniqueName="18" name="RSM" queryTableFieldId="18" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{818B5783-7825-4D26-998E-281773717B25}" uniqueName="19" name="ARA" queryTableFieldId="19" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{0FE14043-3324-41DD-8B51-00A0A2C48D64}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{2428A88F-E0AB-4FDB-A9BB-F5EE9BE4A3FF}" uniqueName="21" name="MAL" queryTableFieldId="21" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{78A467B1-E2C6-4AA0-A859-AE4312CDAB7C}" uniqueName="22" name="AUS" queryTableFieldId="22" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00E1EE48-65DA-4C20-87EF-299480229B47}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="1"/>
     <tableColumn id="24" xr3:uid="{1287CDE4-7BF5-4041-A5C6-E69AF5667D82}" uniqueName="24" name="Pts" queryTableFieldId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1517,7 +1528,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1528,16 +1539,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1545,16 +1556,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1562,16 +1573,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1579,16 +1590,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1596,16 +1607,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -1613,16 +1624,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1630,16 +1641,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1647,16 +1658,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1664,16 +1675,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -1681,16 +1692,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1698,16 +1709,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1715,16 +1726,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1732,16 +1743,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1749,16 +1760,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -1766,16 +1777,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1783,16 +1794,16 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -1800,16 +1811,16 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>248</v>
       </c>
     </row>
@@ -1817,16 +1828,16 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>250</v>
       </c>
     </row>
@@ -1842,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9391B59-A1F4-420B-A961-E31AEA1A1404}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,10 +1868,11 @@
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1883,968 +1895,1082 @@
         <v>45</v>
       </c>
       <c r="H1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>202</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>202</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>161</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I38" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2967,68 +3093,67 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>186</v>
       </c>
       <c r="X2">
@@ -3039,68 +3164,67 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>187</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="V3" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" t="s">
         <v>70</v>
       </c>
       <c r="X3">
@@ -3111,62 +3235,58 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>98</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>159</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>187</v>
       </c>
       <c r="X4">
@@ -3177,68 +3297,67 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>187</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>187</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>187</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>187</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>98</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>187</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>98</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>188</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>79</v>
       </c>
       <c r="X5">
@@ -3249,68 +3368,67 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>189</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>187</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>187</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>79</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>159</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>98</v>
       </c>
       <c r="X6">
@@ -3321,68 +3439,67 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>159</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="O7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>162</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>162</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>159</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" t="s">
         <v>162</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" t="s">
         <v>189</v>
       </c>
       <c r="X7">
@@ -3393,68 +3510,67 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="P8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" t="s">
         <v>187</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="T8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" t="s">
+        <v>186</v>
+      </c>
+      <c r="V8" t="s">
         <v>187</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
       <c r="X8">
@@ -3465,68 +3581,67 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" t="s">
         <v>159</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>98</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>162</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>159</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V9" s="1" t="s">
+      <c r="U9" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9" t="s">
         <v>79</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" t="s">
         <v>186</v>
       </c>
       <c r="X9">
@@ -3537,66 +3652,64 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>189</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>190</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>162</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="S10" t="s">
+        <v>186</v>
+      </c>
+      <c r="T10" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" t="s">
         <v>186</v>
       </c>
       <c r="X10">
@@ -3607,66 +3720,63 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>191</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="O11" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" t="s">
         <v>159</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>159</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="T11" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" t="s">
+        <v>186</v>
+      </c>
       <c r="X11">
         <v>88</v>
       </c>
@@ -3675,64 +3785,61 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>189</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>189</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>162</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>153</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>192</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="R12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" t="s">
         <v>189</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>162</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" t="s">
         <v>193</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" t="s">
         <v>186</v>
       </c>
       <c r="X12">
@@ -3743,70 +3850,70 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>188</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>188</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>153</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>189</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>189</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="R13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>193</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>189</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" t="s">
         <v>87</v>
       </c>
       <c r="X13">
@@ -3817,70 +3924,70 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" t="s">
         <v>188</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>193</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>87</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>193</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="P14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>153</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>87</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V14" s="1" t="s">
+      <c r="T14" t="s">
+        <v>186</v>
+      </c>
+      <c r="U14" t="s">
+        <v>186</v>
+      </c>
+      <c r="V14" t="s">
         <v>87</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" t="s">
         <v>193</v>
       </c>
       <c r="X14">
@@ -3891,64 +3998,61 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" t="s">
         <v>193</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>189</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>153</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="R15" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" t="s">
         <v>153</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>189</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>153</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" t="s">
         <v>162</v>
       </c>
       <c r="X15">
@@ -3959,70 +4063,70 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>153</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" t="s">
         <v>195</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="O16" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" t="s">
         <v>109</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>189</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>96</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>193</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>109</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" t="s">
         <v>159</v>
       </c>
       <c r="X16">
@@ -4033,70 +4137,70 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>191</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" t="s">
         <v>96</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>188</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>109</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" t="s">
         <v>109</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>153</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="V17" t="s">
+        <v>186</v>
+      </c>
+      <c r="W17" t="s">
         <v>153</v>
       </c>
       <c r="X17">
@@ -4107,38 +4211,21 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
       <c r="X18">
         <v>28</v>
       </c>
@@ -4147,66 +4234,63 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
         <v>193</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>153</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>193</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>193</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>188</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="T19" t="s">
+        <v>186</v>
+      </c>
+      <c r="U19" t="s">
         <v>190</v>
       </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
       <c r="X19">
         <v>28</v>
       </c>
@@ -4215,36 +4299,18 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>153</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
       <c r="X20">
         <v>27</v>
       </c>
@@ -4253,34 +4319,16 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
+      <c r="W21" t="s">
         <v>65</v>
       </c>
       <c r="X21">
@@ -4291,60 +4339,54 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>87</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" t="s">
         <v>62</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
       <c r="X22">
         <v>27</v>
       </c>
@@ -4353,46 +4395,34 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>109</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U23" s="1" t="s">
+      <c r="T23" t="s">
+        <v>186</v>
+      </c>
+      <c r="U23" t="s">
         <v>87</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" t="s">
         <v>188</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" t="s">
         <v>56</v>
       </c>
       <c r="X23">
@@ -4403,68 +4433,67 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>191</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>191</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="s">
         <v>193</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
         <v>188</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>188</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s">
         <v>87</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" t="s">
         <v>188</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="U24" t="s">
+        <v>186</v>
+      </c>
+      <c r="V24" t="s">
+        <v>186</v>
+      </c>
+      <c r="W24" t="s">
         <v>109</v>
       </c>
       <c r="X24">
@@ -4475,38 +4504,21 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>162</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
       <c r="X25">
         <v>17</v>
       </c>
@@ -4515,64 +4527,60 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" t="s">
         <v>193</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="K26" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s">
         <v>189</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" t="s">
         <v>96</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+      <c r="O26" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" t="s">
         <v>191</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="R26" t="s">
+        <v>186</v>
+      </c>
+      <c r="S26" t="s">
         <v>191</v>
       </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
       <c r="X26">
         <v>13</v>
       </c>
@@ -4581,38 +4589,21 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
       <c r="X27">
         <v>12</v>
       </c>
@@ -4621,64 +4612,61 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>193</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>92</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" t="s">
         <v>191</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>193</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V28" s="1" t="s">
+      <c r="Q28" t="s">
+        <v>186</v>
+      </c>
+      <c r="T28" t="s">
+        <v>186</v>
+      </c>
+      <c r="U28" t="s">
+        <v>186</v>
+      </c>
+      <c r="V28" t="s">
         <v>96</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" t="s">
         <v>186</v>
       </c>
       <c r="X28">
@@ -4689,40 +4677,24 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P29" s="1" t="s">
+      <c r="O29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" t="s">
         <v>87</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" t="s">
         <v>87</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
       <c r="X29">
         <v>10</v>
       </c>
@@ -4731,36 +4703,19 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1" t="s">
+      <c r="W30" t="s">
         <v>188</v>
       </c>
       <c r="X30">
@@ -4771,40 +4726,24 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
+      <c r="O31" t="s">
         <v>198</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" t="s">
         <v>109</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
       <c r="X31">
         <v>2</v>
       </c>
@@ -4813,81 +4752,51 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1" t="s">
+      <c r="R32" t="s">
         <v>96</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="S32" t="s">
+        <v>186</v>
+      </c>
       <c r="X32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1" t="s">
+      <c r="T33" t="s">
         <v>191</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" t="s">
         <v>195</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W33" s="1" t="s">
+      <c r="V33" t="s">
+        <v>186</v>
+      </c>
+      <c r="W33" t="s">
         <v>186</v>
       </c>
       <c r="X33">
@@ -4895,145 +4804,76 @@
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
+      <c r="P34" t="s">
         <v>191</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
       <c r="X34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
+      <c r="M35" t="s">
         <v>191</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
       <c r="X35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
       <c r="X36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1" t="s">
+      <c r="W37" t="s">
         <v>186</v>
       </c>
       <c r="X37">
@@ -5041,38 +4881,21 @@
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1" t="s">
+      <c r="V38" t="s">
         <v>198</v>
       </c>
-      <c r="W38" s="1"/>
       <c r="X38">
         <v>0</v>
       </c>
@@ -5089,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F11A099-C530-4A94-822D-F2DB0B0F7D8E}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:Z1"/>
     </sheetView>
   </sheetViews>
@@ -5179,1615 +5002,1615 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="P8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="O9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="O10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="K11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="P11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="N13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="P14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O15" s="4" t="s">
+      <c r="N15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="K16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S17" s="4" t="s">
+      <c r="R17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="P19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="J22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q23" s="4" t="s">
+      <c r="P23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="Q24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="K26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O26" s="3" t="s">
+      <c r="N26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R28" s="3" t="s">
+      <c r="M28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="O32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S33" s="4" t="s">
+      <c r="R33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/data/2012.xlsx
+++ b/Excels/data/2012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BBDB6-EC9B-4C05-A59B-7FF961C098C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D098D-B9A1-472B-A3D1-716B58D89338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18075" windowHeight="12255" tabRatio="751" activeTab="9" xr2:uid="{8F81E862-BABC-4172-AE00-1A1D118F6441}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="751" firstSheet="3" activeTab="9" xr2:uid="{8F81E862-BABC-4172-AE00-1A1D118F6441}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -2795,7 +2795,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BF574-7682-44E4-91D7-207C8F413CD0}">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,28 +3270,28 @@
       <c r="K2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3329,28 +3329,28 @@
       <c r="K3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="Q3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3388,28 +3388,28 @@
       <c r="K4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3447,28 +3447,28 @@
       <c r="K5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3506,28 +3506,28 @@
       <c r="K6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3565,28 +3565,28 @@
       <c r="K7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="P7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3624,28 +3624,28 @@
       <c r="K8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="N8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="P8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3683,28 +3683,28 @@
       <c r="K9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>153</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3740,7 +3740,6 @@
       <c r="K10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3748,6 +3747,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3765,28 +3765,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="Q11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3808,7 +3808,6 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3816,6 +3815,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3849,28 +3849,28 @@
       <c r="K13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="M13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="S13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3908,28 +3908,28 @@
       <c r="K14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="R14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3967,28 +3967,28 @@
       <c r="K15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="R15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4026,20 +4026,20 @@
       <c r="K16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>345</v>
       </c>
@@ -4057,7 +4057,6 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -4065,8 +4064,9 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>345</v>
       </c>
@@ -4098,32 +4098,32 @@
       <c r="K18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>351</v>
       </c>
@@ -4157,32 +4157,32 @@
       <c r="K19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>337</v>
       </c>
@@ -4216,22 +4216,22 @@
       <c r="K20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>337</v>
       </c>
@@ -4247,18 +4247,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>335</v>
       </c>
@@ -4292,7 +4292,6 @@
       <c r="K22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4300,8 +4299,9 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>335</v>
       </c>
@@ -4317,30 +4317,30 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="Q23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>265</v>
       </c>
@@ -4374,32 +4374,32 @@
       <c r="K24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>271</v>
       </c>
@@ -4433,32 +4433,32 @@
       <c r="K25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="S25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>304</v>
       </c>
@@ -4480,32 +4480,32 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>109</v>
       </c>
       <c r="R26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>364</v>
       </c>
@@ -4539,32 +4539,32 @@
       <c r="K27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="M27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>191</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>377</v>
       </c>
@@ -4598,32 +4598,32 @@
       <c r="K28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>278</v>
       </c>
@@ -4655,30 +4655,30 @@
       <c r="K29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>82</v>
       </c>
       <c r="Q29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>275</v>
       </c>
@@ -4696,7 +4696,6 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4704,8 +4703,9 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>275</v>
       </c>
@@ -4737,32 +4737,32 @@
       <c r="K31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="M31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="P31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>333</v>
       </c>
@@ -4796,7 +4796,6 @@
       <c r="K32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4804,8 +4803,9 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>356</v>
       </c>
@@ -4839,24 +4839,24 @@
       <c r="K33" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="M33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>369</v>
       </c>
@@ -4874,18 +4874,18 @@
         <v>56</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>349</v>
       </c>
@@ -4919,30 +4919,30 @@
       <c r="K35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>308</v>
       </c>
@@ -4962,7 +4962,6 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4970,8 +4969,9 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>308</v>
       </c>
@@ -4999,32 +4999,32 @@
       <c r="K37" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>289</v>
       </c>
@@ -5042,7 +5042,6 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5050,8 +5049,9 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>289</v>
       </c>
@@ -5069,7 +5069,6 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -5077,8 +5076,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>289</v>
       </c>
@@ -5106,32 +5106,32 @@
       <c r="K40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="Q40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R40" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S40" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>379</v>
       </c>
@@ -5147,18 +5147,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="S41" s="3" t="s">
+      <c r="S41" s="3"/>
+      <c r="T41" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>419</v>
       </c>
@@ -5174,20 +5174,20 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="2"/>
+      <c r="T42" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>326</v>
       </c>
@@ -5219,7 +5219,6 @@
         <v>186</v>
       </c>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -5227,8 +5226,9 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>391</v>
       </c>
@@ -5250,7 +5250,6 @@
         <v>76</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5258,8 +5257,9 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>382</v>
       </c>
@@ -5277,18 +5277,18 @@
       <c r="K45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>347</v>
       </c>
@@ -5306,18 +5306,18 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="2" t="s">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>347</v>
       </c>
@@ -5333,24 +5333,24 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>286</v>
       </c>
@@ -5370,28 +5370,28 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="Q48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="R48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="S48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S48" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>281</v>
       </c>
@@ -5409,20 +5409,20 @@
       <c r="K49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>306</v>
       </c>
@@ -5444,7 +5444,6 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -5452,8 +5451,9 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>306</v>
       </c>
@@ -5481,7 +5481,6 @@
       <c r="K51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -5489,8 +5488,9 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>387</v>
       </c>
@@ -5506,18 +5506,18 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2" t="s">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>269</v>
       </c>
@@ -5535,18 +5535,18 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>376</v>
       </c>
@@ -5580,32 +5580,32 @@
       <c r="K54" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="R54" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="S54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="T54" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>330</v>
       </c>
@@ -5639,30 +5639,30 @@
       <c r="K55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q55" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S55" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S55" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>257</v>
       </c>
@@ -5680,32 +5680,32 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P56" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="T56" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>328</v>
       </c>
@@ -5721,24 +5721,24 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P57" s="3"/>
+      <c r="P57" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-      <c r="S57" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>341</v>
       </c>
@@ -5754,26 +5754,26 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="R58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R58" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>324</v>
       </c>
@@ -5791,26 +5791,26 @@
       <c r="K59" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="S59" s="3"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>255</v>
       </c>
@@ -5844,26 +5844,26 @@
       <c r="K60" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="2"/>
+      <c r="T60" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>283</v>
       </c>
@@ -5881,7 +5881,6 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -5889,8 +5888,9 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>385</v>
       </c>
@@ -5906,18 +5906,18 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2" t="s">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>359</v>
       </c>
@@ -5933,18 +5933,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="3"/>
+      <c r="O63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>361</v>
       </c>
@@ -5960,18 +5960,18 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2" t="s">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>339</v>
       </c>
@@ -5989,7 +5989,6 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -5997,8 +5996,9 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>367</v>
       </c>
@@ -6016,7 +6016,6 @@
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -6024,8 +6023,9 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>389</v>
       </c>
@@ -6041,18 +6041,18 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="3" t="s">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>372</v>
       </c>
@@ -6068,18 +6068,18 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>320</v>
       </c>
@@ -6106,27 +6106,27 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>556</v>
       </c>
@@ -9197,8 +9197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F11A099-C530-4A94-822D-F2DB0B0F7D8E}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15365,8 +15365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1E8DBA-0644-4DCE-A90C-6E7E7988B377}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15491,9 +15491,6 @@
       <c r="K2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="M2" s="2" t="s">
         <v>70</v>
       </c>
@@ -15501,18 +15498,21 @@
         <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="R2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15550,28 +15550,28 @@
       <c r="K3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -15609,28 +15609,28 @@
       <c r="K4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -15668,28 +15668,28 @@
       <c r="K5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R5" s="3" t="s">
         <v>186</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -15727,28 +15727,28 @@
       <c r="K6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -15786,28 +15786,28 @@
       <c r="K7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="S7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -15845,28 +15845,28 @@
       <c r="K8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -15904,28 +15904,28 @@
       <c r="K9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -15963,28 +15963,28 @@
       <c r="K10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="Q10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -16022,28 +16022,28 @@
       <c r="K11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -16081,28 +16081,28 @@
       <c r="K12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16134,7 +16134,6 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -16142,6 +16141,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -16165,28 +16165,28 @@
       <c r="K14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="P14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -16206,7 +16206,6 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -16214,6 +16213,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -16247,32 +16247,32 @@
       <c r="K16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>145</v>
       </c>
@@ -16306,24 +16306,24 @@
       <c r="K17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="N17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>496</v>
       </c>
@@ -16357,32 +16357,32 @@
       <c r="K18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="R18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -16416,7 +16416,6 @@
       <c r="K19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -16424,8 +16423,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -16441,24 +16441,24 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>479</v>
       </c>
@@ -16492,32 +16492,32 @@
       <c r="K21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>432</v>
       </c>
@@ -16551,26 +16551,26 @@
       <c r="K22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>480</v>
       </c>
@@ -16588,7 +16588,6 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -16596,8 +16595,9 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>480</v>
       </c>
@@ -16613,32 +16613,32 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="R24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>450</v>
       </c>
@@ -16660,7 +16660,6 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -16668,8 +16667,9 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>450</v>
       </c>
@@ -16697,32 +16697,32 @@
       <c r="K26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>484</v>
       </c>
@@ -16754,9 +16754,6 @@
       <c r="K27" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>186</v>
       </c>
@@ -16767,19 +16764,22 @@
         <v>186</v>
       </c>
       <c r="P27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>446</v>
       </c>
@@ -16809,7 +16809,6 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -16817,8 +16816,9 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>446</v>
       </c>
@@ -16836,20 +16836,20 @@
       <c r="K29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>446</v>
       </c>
@@ -16865,28 +16865,28 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="R30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>522</v>
       </c>
@@ -16902,18 +16902,18 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>501</v>
       </c>
@@ -16947,32 +16947,32 @@
       <c r="K32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>519</v>
       </c>
@@ -17006,28 +17006,28 @@
       <c r="K33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>468</v>
       </c>
@@ -17061,20 +17061,20 @@
       <c r="K34" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>451</v>
       </c>
@@ -17096,7 +17096,6 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -17104,8 +17103,9 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>451</v>
       </c>
@@ -17133,32 +17133,32 @@
       <c r="K36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>473</v>
       </c>
@@ -17186,7 +17186,6 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -17194,8 +17193,9 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>473</v>
       </c>
@@ -17217,20 +17217,17 @@
       <c r="K38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="O38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>96</v>
@@ -17239,10 +17236,13 @@
         <v>96</v>
       </c>
       <c r="S38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T38" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>477</v>
       </c>
@@ -17258,18 +17258,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="3" t="s">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -17303,20 +17303,20 @@
       <c r="K40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>504</v>
       </c>
@@ -17332,28 +17332,28 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="3"/>
+      <c r="O41" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>509</v>
       </c>
@@ -17385,7 +17385,6 @@
         <v>195</v>
       </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -17393,8 +17392,9 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>509</v>
       </c>
@@ -17412,9 +17412,6 @@
       <c r="K43" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>195</v>
       </c>
@@ -17433,9 +17430,12 @@
       <c r="R43" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="S43" s="3"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>326</v>
       </c>
@@ -17451,32 +17451,32 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="M44" s="2" t="s">
         <v>131</v>
       </c>
       <c r="N44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="S44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>524</v>
       </c>
@@ -17492,18 +17492,18 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>453</v>
       </c>
@@ -17537,28 +17537,28 @@
       <c r="K46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="N46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="P46" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="S46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>434</v>
       </c>
@@ -17574,22 +17574,22 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>507</v>
       </c>
@@ -17623,18 +17623,18 @@
       <c r="K48" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>507</v>
       </c>
@@ -17650,30 +17650,30 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O49" s="3" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>76</v>
       </c>
       <c r="Q49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>457</v>
       </c>
@@ -17695,7 +17695,6 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -17703,8 +17702,9 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>457</v>
       </c>
@@ -17726,7 +17726,6 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -17734,8 +17733,9 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>517</v>
       </c>
@@ -17751,20 +17751,20 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>440</v>
       </c>
@@ -17788,30 +17788,30 @@
       <c r="K53" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="M53" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="O53" s="3"/>
       <c r="P53" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q53" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="Q53" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="R53" s="3" t="s">
         <v>186</v>
       </c>
       <c r="S53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T53" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>461</v>
       </c>
@@ -17831,7 +17831,6 @@
         <v>90</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -17839,8 +17838,9 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>491</v>
       </c>
@@ -17858,7 +17858,6 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -17866,8 +17865,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>491</v>
       </c>
@@ -17887,32 +17887,32 @@
       <c r="K56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="O56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="T56" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>442</v>
       </c>
@@ -17930,7 +17930,6 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -17938,8 +17937,9 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>442</v>
       </c>
@@ -17967,7 +17967,6 @@
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -17975,8 +17974,9 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>467</v>
       </c>
@@ -17994,7 +17994,6 @@
         <v>406</v>
       </c>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -18002,8 +18001,9 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -18019,18 +18019,18 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2" t="s">
+      <c r="S60" s="2"/>
+      <c r="T60" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>445</v>
       </c>
@@ -18048,7 +18048,6 @@
         <v>403</v>
       </c>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -18056,8 +18055,9 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>455</v>
       </c>
@@ -18073,18 +18073,18 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2" t="s">
+      <c r="S62" s="2"/>
+      <c r="T62" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>513</v>
       </c>
@@ -18100,18 +18100,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-      <c r="S63" s="3" t="s">
+      <c r="S63" s="3"/>
+      <c r="T63" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>463</v>
       </c>
@@ -18129,7 +18129,6 @@
       <c r="K64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -18137,8 +18136,9 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>510</v>
       </c>
@@ -18156,7 +18156,6 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -18164,8 +18163,9 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>456</v>
       </c>
@@ -18181,16 +18181,16 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="2" t="s">
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
